--- a/ebegu-server/src/main/resources/reporting/ZahlungAuftrag.xlsx
+++ b/ebegu-server/src/main/resources/reporting/ZahlungAuftrag.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="GesuchStichtagPivottableData">Data!$A$1:$G$2</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -90,6 +87,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$CHF]\ #,##0.00;[Red]\-[$CHF]\ #,##0.00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,8 +120,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,7 +442,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,22 +498,22 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
@@ -518,6 +522,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ebegu-server/src/main/resources/reporting/ZahlungAuftrag.xlsx
+++ b/ebegu-server/src/main/resources/reporting/ZahlungAuftrag.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medu\IdeaProjects\ebegu\ebegu-server\src\main\resources\reporting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Client\A$\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
+    <workbookView xWindow="2925" yWindow="1080" windowWidth="28800" windowHeight="14010"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Institution</t>
   </si>
@@ -81,15 +81,22 @@
   </si>
   <si>
     <t>Betrag in CHF</t>
+  </si>
+  <si>
+    <t>In Zahlungslauf
+ignorieren</t>
+  </si>
+  <si>
+    <t>{isIgnoriert}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="[$CHF]\ #,##0.00;[Red]\-[$CHF]\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$CHF]\ #,##0.00;[Red]\-[$CHF]\ #,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -120,14 +127,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -439,56 +455,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="J1" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -516,7 +536,10 @@
       <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/ebegu-server/src/main/resources/reporting/ZahlungAuftrag.xlsx
+++ b/ebegu-server/src/main/resources/reporting/ZahlungAuftrag.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="1080" windowWidth="28800" windowHeight="14010"/>
+    <workbookView xWindow="7800" yWindow="2880" windowWidth="28800" windowHeight="14010"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Institution</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>{isIgnoriert}</t>
+  </si>
+  <si>
+    <t>Korrektur</t>
+  </si>
+  <si>
+    <t>{isKorrektur}</t>
   </si>
 </sst>
 </file>
@@ -127,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -141,11 +147,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -455,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
@@ -471,12 +486,12 @@
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -504,11 +519,14 @@
       <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -536,14 +554,22 @@
       <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:XFD99999">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$J$2="X"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ebegu-server/src/main/resources/reporting/ZahlungAuftrag.xlsx
+++ b/ebegu-server/src/main/resources/reporting/ZahlungAuftrag.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="2880" windowWidth="28800" windowHeight="14010"/>
+    <workbookView xWindow="11700" yWindow="4320" windowWidth="28800" windowHeight="14010"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Institution</t>
   </si>
@@ -94,6 +94,21 @@
   </si>
   <si>
     <t>{isKorrektur}</t>
+  </si>
+  <si>
+    <t>{beschrieb}</t>
+  </si>
+  <si>
+    <t>{generiertAm}</t>
+  </si>
+  <si>
+    <t>{faelligAm}</t>
+  </si>
+  <si>
+    <t>generiert am</t>
+  </si>
+  <si>
+    <t>faellig am</t>
   </si>
 </sst>
 </file>
@@ -104,7 +119,7 @@
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$CHF]\ #,##0.00;[Red]\-[$CHF]\ #,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,16 +127,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -129,32 +164,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -470,104 +534,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
     <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L7" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:XFD99999">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$J$2="X"</formula>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A7:XFD18 A21:XFD100004 C19:XFD20">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$J7="X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:B4">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$J19="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ebegu-server/src/main/resources/reporting/ZahlungAuftrag.xlsx
+++ b/ebegu-server/src/main/resources/reporting/ZahlungAuftrag.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="4320" windowWidth="28800" windowHeight="14010"/>
+    <workbookView xWindow="12675" yWindow="4680" windowWidth="28800" windowHeight="14010"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -213,7 +213,22 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -537,7 +552,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,14 +682,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7:XFD18 A21:XFD100004 C19:XFD20">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A7:XFD999999">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$J7="X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B4">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$J19="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
